--- a/Search Process For AI SE Prioritization SLR.xlsx
+++ b/Search Process For AI SE Prioritization SLR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="777">
   <si>
     <t>Title</t>
   </si>
@@ -407,6 +407,9 @@
     <t>IEEE/ACM 1st International Workshop on Natural Language-Based Software Engineering (NLBSE)</t>
   </si>
   <si>
+    <t>Workshop</t>
+  </si>
+  <si>
     <t>Can Code Representation Boost IR-Based Test Case Prioritization?</t>
   </si>
   <si>
@@ -420,6 +423,9 @@
   </si>
   <si>
     <t>2023 IEEE 34th International Symposium on Software Reliability Engineering (ISSRE)</t>
+  </si>
+  <si>
+    <t>Symposium</t>
   </si>
   <si>
     <t>CaPBug-A Framework for Automatic Bug Categorization and Prioritization Using NLP and Machine Learning Algorithms</t>
@@ -4079,44 +4085,44 @@
         <v>2022.0</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F27" s="8">
         <v>2023.0</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>23</v>
@@ -4130,19 +4136,19 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F29" s="8">
         <v>2022.0</v>
@@ -4153,16 +4159,16 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>45</v>
@@ -4176,19 +4182,19 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F31" s="8">
         <v>2023.0</v>
@@ -4199,19 +4205,19 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F32" s="5">
         <v>2018.0</v>
@@ -4222,19 +4228,19 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F33" s="8">
         <v>2021.0</v>
@@ -4245,16 +4251,16 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>17</v>
@@ -4268,19 +4274,19 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F35" s="8">
         <v>2024.0</v>
@@ -4291,19 +4297,19 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="F36" s="10">
         <v>2024.0</v>
@@ -4314,19 +4320,19 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F37" s="8">
         <v>2023.0</v>
@@ -4337,19 +4343,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F38" s="5">
         <v>2022.0</v>
@@ -4360,19 +4366,19 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F39" s="8">
         <v>2022.0</v>
@@ -4383,16 +4389,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F40" s="5">
         <v>2022.0</v>
@@ -4403,19 +4409,19 @@
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F41" s="8">
         <v>2021.0</v>
@@ -4426,19 +4432,19 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F42" s="5">
         <v>2022.0</v>
@@ -4449,19 +4455,19 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F43" s="8">
         <v>2024.0</v>
@@ -4472,16 +4478,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>23</v>
@@ -4495,19 +4501,19 @@
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F45" s="8">
         <v>2021.0</v>
@@ -4518,16 +4524,16 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>23</v>
@@ -4541,19 +4547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F47" s="8">
         <v>2024.0</v>
@@ -4564,19 +4570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F48" s="5">
         <v>2024.0</v>
@@ -4587,19 +4593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F49" s="8">
         <v>2024.0</v>
@@ -4610,16 +4616,16 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>23</v>
@@ -4633,19 +4639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F51" s="8">
         <v>2024.0</v>
@@ -4656,16 +4662,16 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>23</v>
@@ -4679,19 +4685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F53" s="8">
         <v>2023.0</v>
@@ -4702,19 +4708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F54" s="10">
         <v>2020.0</v>
@@ -4725,19 +4731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F55" s="8">
         <v>2018.0</v>
@@ -4748,19 +4754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F56" s="5">
         <v>2024.0</v>
@@ -4771,19 +4777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F57" s="8">
         <v>2022.0</v>
@@ -4794,19 +4800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F58" s="5">
         <v>2023.0</v>
@@ -4817,42 +4823,42 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F59" s="8">
         <v>2022.0</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F60" s="10">
         <v>2010.0</v>
@@ -4863,16 +4869,16 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>23</v>
@@ -4886,19 +4892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F62" s="5">
         <v>2019.0</v>
@@ -4909,19 +4915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F63" s="8">
         <v>2023.0</v>
@@ -4932,42 +4938,42 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F64" s="5">
         <v>2023.0</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F65" s="11">
         <v>2022.0</v>
@@ -4978,16 +4984,16 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>23</v>
@@ -5001,19 +5007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F67" s="8">
         <v>2021.0</v>
@@ -5024,42 +5030,42 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F68" s="5">
         <v>2022.0</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F69" s="8">
         <v>2020.0</v>
@@ -5070,19 +5076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F70" s="5">
         <v>2021.0</v>
@@ -5093,19 +5099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F71" s="8">
         <v>2022.0</v>
@@ -5116,19 +5122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F72" s="5">
         <v>2024.0</v>
@@ -5139,19 +5145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F73" s="8">
         <v>2022.0</v>
@@ -5162,19 +5168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F74" s="5">
         <v>2024.0</v>
@@ -5185,19 +5191,19 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F75" s="8">
         <v>2022.0</v>
@@ -5208,19 +5214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F76" s="5">
         <v>2023.0</v>
@@ -5231,19 +5237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F77" s="8">
         <v>2024.0</v>
@@ -5254,19 +5260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F78" s="5">
         <v>2019.0</v>
@@ -5277,19 +5283,19 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F79" s="8">
         <v>2022.0</v>
@@ -5300,16 +5306,16 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>23</v>
@@ -5323,19 +5329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F81" s="8">
         <v>2024.0</v>
@@ -5346,16 +5352,16 @@
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>23</v>
@@ -5369,19 +5375,19 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F83" s="11">
         <v>2020.0</v>
@@ -5392,19 +5398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F84" s="5">
         <v>2023.0</v>
@@ -5415,16 +5421,16 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>23</v>
@@ -5438,19 +5444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F86" s="5">
         <v>2021.0</v>
@@ -5461,19 +5467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F87" s="8">
         <v>2020.0</v>
@@ -5484,19 +5490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F88" s="5">
         <v>2022.0</v>
@@ -5507,19 +5513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F89" s="8">
         <v>2022.0</v>
@@ -5530,16 +5536,16 @@
     </row>
     <row r="90">
       <c r="A90" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>83</v>
@@ -5553,19 +5559,19 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F91" s="8">
         <v>2023.0</v>
@@ -5576,19 +5582,19 @@
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F92" s="5">
         <v>2024.0</v>
@@ -5599,19 +5605,19 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F93" s="8">
         <v>2021.0</v>
@@ -5622,42 +5628,42 @@
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F94" s="5">
         <v>2024.0</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F95" s="8">
         <v>2023.0</v>
@@ -5668,19 +5674,19 @@
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F96" s="5">
         <v>2023.0</v>
@@ -5691,19 +5697,19 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F97" s="8">
         <v>2019.0</v>
@@ -5714,19 +5720,19 @@
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F98" s="5">
         <v>2019.0</v>
@@ -5737,39 +5743,39 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F99" s="8">
         <v>2022.0</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>103</v>
@@ -5783,19 +5789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F101" s="8">
         <v>2023.0</v>
@@ -5806,19 +5812,19 @@
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F102" s="5">
         <v>2024.0</v>
@@ -5829,19 +5835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F103" s="8">
         <v>2021.0</v>
@@ -5852,19 +5858,19 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F104" s="10">
         <v>2021.0</v>
@@ -5875,19 +5881,19 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F105" s="11">
         <v>2019.0</v>
@@ -5898,19 +5904,19 @@
     </row>
     <row r="106">
       <c r="A106" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F106" s="5">
         <v>2023.0</v>
@@ -5921,19 +5927,19 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F107" s="8">
         <v>2023.0</v>
@@ -5944,16 +5950,16 @@
     </row>
     <row r="108">
       <c r="A108" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>83</v>
@@ -5967,19 +5973,19 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F109" s="8">
         <v>2021.0</v>
@@ -5990,19 +5996,19 @@
     </row>
     <row r="110">
       <c r="A110" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F110" s="5">
         <v>2019.0</v>
@@ -6013,42 +6019,42 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F111" s="8">
         <v>2022.0</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F112" s="5">
         <v>2024.0</v>
@@ -6059,16 +6065,16 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>23</v>
@@ -6082,19 +6088,19 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F114" s="5">
         <v>2023.0</v>
@@ -6105,19 +6111,19 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F115" s="8">
         <v>2021.0</v>
@@ -6128,19 +6134,19 @@
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F116" s="5">
         <v>2024.0</v>
@@ -6151,16 +6157,16 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>23</v>
@@ -6174,19 +6180,19 @@
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F118" s="5">
         <v>2024.0</v>
@@ -6197,19 +6203,19 @@
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F119" s="8">
         <v>2019.0</v>
@@ -6220,19 +6226,19 @@
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F120" s="5">
         <v>2023.0</v>
@@ -6243,16 +6249,16 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>83</v>
@@ -6266,19 +6272,19 @@
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F122" s="5">
         <v>2023.0</v>
@@ -6289,16 +6295,16 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>23</v>
@@ -6312,19 +6318,19 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="F124" s="5">
         <v>2022.0</v>
@@ -6335,19 +6341,19 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F125" s="8">
         <v>2024.0</v>
@@ -6358,19 +6364,19 @@
     </row>
     <row r="126">
       <c r="A126" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F126" s="5">
         <v>2021.0</v>
@@ -6381,19 +6387,19 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F127" s="8">
         <v>2020.0</v>
@@ -6404,34 +6410,34 @@
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F128" s="13">
         <v>2020.0</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G128">
+      <formula1>"Conference Paper,Journal Article,Workshop,Symposium"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="F2:F128">
       <formula1>AND(ISNUMBER(F2),(NOT(OR(NOT(ISERROR(DATEVALUE(F2))), AND(ISNUMBER(F2), LEFT(CELL("format", F2))="D")))))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="G2:G128">
-      <formula1>"Conference Paper,Journal Article"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -6489,25 +6495,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2">
@@ -6533,7 +6539,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I2" s="5">
         <v>1.0</v>
@@ -6578,7 +6584,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I3" s="22">
         <v>1.0</v>
@@ -6623,7 +6629,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I4" s="24">
         <v>1.0</v>
@@ -6668,7 +6674,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I5" s="22">
         <v>1.0</v>
@@ -6713,7 +6719,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I6" s="24">
         <v>1.0</v>
@@ -6758,7 +6764,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I7" s="22">
         <v>1.0</v>
@@ -6803,7 +6809,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I8" s="24">
         <v>1.0</v>
@@ -6848,7 +6854,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I9" s="22">
         <v>1.0</v>
@@ -6893,7 +6899,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I10" s="24">
         <v>1.0</v>
@@ -6938,7 +6944,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="22">
@@ -6960,19 +6966,19 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F12" s="5">
         <v>2023.0</v>
@@ -6981,7 +6987,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I12" s="24">
         <v>1.0</v>
@@ -7005,16 +7011,16 @@
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>23</v>
@@ -7026,7 +7032,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I13" s="22">
         <v>1.0</v>
@@ -7050,19 +7056,19 @@
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F14" s="27">
         <v>2022.0</v>
@@ -7071,7 +7077,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I14" s="5">
         <v>0.5</v>
@@ -7095,16 +7101,16 @@
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>17</v>
@@ -7116,7 +7122,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I15" s="22">
         <v>1.0</v>
@@ -7140,19 +7146,19 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F16" s="5">
         <v>2021.0</v>
@@ -7161,7 +7167,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I16" s="24">
         <v>1.0</v>
@@ -7185,16 +7191,16 @@
     </row>
     <row r="17">
       <c r="A17" s="29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>23</v>
@@ -7206,7 +7212,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I17" s="20">
         <v>1.0</v>
@@ -7230,16 +7236,16 @@
     </row>
     <row r="18">
       <c r="A18" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>23</v>
@@ -7251,7 +7257,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I18" s="5">
         <v>1.0</v>
@@ -7275,19 +7281,19 @@
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F19" s="20">
         <v>2024.0</v>
@@ -7296,7 +7302,7 @@
         <v>12</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I19" s="22">
         <v>0.5</v>
@@ -7320,16 +7326,16 @@
     </row>
     <row r="20" hidden="1">
       <c r="A20" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>23</v>
@@ -7341,7 +7347,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I20" s="5">
         <v>1.0</v>
@@ -7365,19 +7371,19 @@
     </row>
     <row r="21">
       <c r="A21" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F21" s="20">
         <v>2022.0</v>
@@ -7386,7 +7392,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I21" s="22">
         <v>1.0</v>
@@ -7410,19 +7416,19 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F22" s="5">
         <v>2019.0</v>
@@ -7431,7 +7437,7 @@
         <v>12</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I22" s="24">
         <v>0.5</v>
@@ -7455,19 +7461,19 @@
     </row>
     <row r="23">
       <c r="A23" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F23" s="20">
         <v>2023.0</v>
@@ -7476,7 +7482,7 @@
         <v>12</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I23" s="22">
         <v>1.0</v>
@@ -7500,19 +7506,19 @@
     </row>
     <row r="24">
       <c r="A24" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F24" s="27">
         <v>2022.0</v>
@@ -7521,7 +7527,7 @@
         <v>18</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I24" s="5">
         <v>1.0</v>
@@ -7545,16 +7551,16 @@
     </row>
     <row r="25">
       <c r="A25" s="19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>23</v>
@@ -7566,7 +7572,7 @@
         <v>18</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I25" s="22">
         <v>1.0</v>
@@ -7590,19 +7596,19 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F26" s="5">
         <v>2022.0</v>
@@ -7611,7 +7617,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I26" s="24">
         <v>1.0</v>
@@ -7635,19 +7641,19 @@
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F27" s="20">
         <v>2020.0</v>
@@ -7656,7 +7662,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I27" s="22">
         <v>1.0</v>
@@ -7680,19 +7686,19 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F28" s="5">
         <v>2022.0</v>
@@ -7701,7 +7707,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I28" s="24">
         <v>0.5</v>
@@ -7725,19 +7731,19 @@
     </row>
     <row r="29">
       <c r="A29" s="19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F29" s="20">
         <v>2024.0</v>
@@ -7746,7 +7752,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I29" s="22">
         <v>1.0</v>
@@ -7770,19 +7776,19 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F30" s="5">
         <v>2023.0</v>
@@ -7791,7 +7797,7 @@
         <v>12</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I30" s="24">
         <v>0.5</v>
@@ -7815,16 +7821,16 @@
     </row>
     <row r="31">
       <c r="A31" s="19" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>23</v>
@@ -7836,7 +7842,7 @@
         <v>18</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I31" s="22">
         <v>1.0</v>
@@ -7860,19 +7866,19 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F32" s="5">
         <v>2024.0</v>
@@ -7881,7 +7887,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I32" s="24">
         <v>0.5</v>
@@ -7905,19 +7911,19 @@
     </row>
     <row r="33">
       <c r="A33" s="19" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F33" s="20">
         <v>2022.0</v>
@@ -7926,7 +7932,7 @@
         <v>18</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I33" s="22">
         <v>1.0</v>
@@ -7950,19 +7956,19 @@
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F34" s="5">
         <v>2023.0</v>
@@ -7971,7 +7977,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I34" s="24">
         <v>1.0</v>
@@ -7995,19 +8001,19 @@
     </row>
     <row r="35">
       <c r="A35" s="19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F35" s="20">
         <v>2023.0</v>
@@ -8016,7 +8022,7 @@
         <v>18</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I35" s="22">
         <v>1.0</v>
@@ -8040,19 +8046,19 @@
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F36" s="27">
         <v>2021.0</v>
@@ -8061,7 +8067,7 @@
         <v>18</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I36" s="5">
         <v>1.0</v>
@@ -8085,19 +8091,19 @@
     </row>
     <row r="37">
       <c r="A37" s="19" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F37" s="20">
         <v>2023.0</v>
@@ -8106,7 +8112,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="22">
@@ -8128,19 +8134,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F38" s="5">
         <v>2023.0</v>
@@ -8149,7 +8155,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I38" s="24">
         <v>1.0</v>
@@ -8173,19 +8179,19 @@
     </row>
     <row r="39">
       <c r="A39" s="19" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F39" s="20">
         <v>2022.0</v>
@@ -8194,7 +8200,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I39" s="22">
         <v>1.0</v>
@@ -8218,16 +8224,16 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>23</v>
@@ -8239,7 +8245,7 @@
         <v>18</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I40" s="24">
         <v>1.0</v>
@@ -8263,19 +8269,19 @@
     </row>
     <row r="41">
       <c r="A41" s="19" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F41" s="20">
         <v>2023.0</v>
@@ -8284,7 +8290,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I41" s="22">
         <v>1.0</v>
@@ -8308,19 +8314,19 @@
     </row>
     <row r="42" hidden="1">
       <c r="A42" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F42" s="5">
         <v>2021.0</v>
@@ -8329,7 +8335,7 @@
         <v>18</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I42" s="24">
         <v>1.0</v>
@@ -8353,16 +8359,16 @@
     </row>
     <row r="43" hidden="1">
       <c r="A43" s="19" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>23</v>
@@ -8374,7 +8380,7 @@
         <v>18</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I43" s="22">
         <v>1.0</v>
@@ -8398,19 +8404,19 @@
     </row>
     <row r="44" hidden="1">
       <c r="A44" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F44" s="5">
         <v>2024.0</v>
@@ -8419,7 +8425,7 @@
         <v>18</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="I44" s="5">
         <v>1.0</v>
@@ -8443,16 +8449,16 @@
     </row>
     <row r="45">
       <c r="A45" s="19" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>23</v>
@@ -8464,7 +8470,7 @@
         <v>18</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I45" s="20">
         <v>1.0</v>
@@ -8488,19 +8494,19 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F46" s="13">
         <v>2020.0</v>
@@ -8509,7 +8515,7 @@
         <v>12</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I46" s="33">
         <v>1.0</v>
@@ -8597,10 +8603,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
@@ -8609,22 +8615,22 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2">
@@ -8644,7 +8650,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G2" s="10" t="str">
         <f t="shared" ref="G2:G30" si="1">TRIM(RIGHT(F2, LEN(F2) - FIND(",", F2)))
@@ -8658,22 +8664,22 @@
         <v>18</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K2" s="5">
         <v>5.0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3">
@@ -8693,7 +8699,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G3" s="39" t="str">
         <f t="shared" si="1"/>
@@ -8706,22 +8712,22 @@
         <v>18</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K3" s="22">
         <v>4.5</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4">
@@ -8741,7 +8747,7 @@
         <v>83</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G4" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8754,22 +8760,22 @@
         <v>12</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K4" s="24">
         <v>3.5</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5">
@@ -8789,7 +8795,7 @@
         <v>93</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G5" s="39" t="str">
         <f t="shared" si="1"/>
@@ -8802,22 +8808,22 @@
         <v>12</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K5" s="22">
         <v>3.0</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6">
@@ -8837,7 +8843,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8850,42 +8856,42 @@
         <v>12</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K6" s="24">
         <v>4.0</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G7" s="39" t="str">
         <f t="shared" si="1"/>
@@ -8898,42 +8904,42 @@
         <v>12</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K7" s="24">
         <v>4.5</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -8946,42 +8952,42 @@
         <v>18</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K8" s="46">
         <v>4.5</v>
       </c>
       <c r="L8" s="47" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N8" s="47" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="O8" s="48" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G9" s="39" t="str">
         <f t="shared" si="1"/>
@@ -8994,42 +9000,42 @@
         <v>18</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K9" s="20">
         <v>4.0</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="50" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E10" s="51" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9042,42 +9048,42 @@
         <v>18</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K10" s="55">
         <v>4.5</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N10" s="47" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G11" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9090,42 +9096,42 @@
         <v>12</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K11" s="22">
         <v>4.5</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9138,42 +9144,42 @@
         <v>18</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K12" s="5">
         <v>3.5</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G13" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9186,42 +9192,42 @@
         <v>18</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K13" s="20">
         <v>4.0</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="O13" s="49" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G14" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9234,42 +9240,42 @@
         <v>12</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K14" s="24">
         <v>3.5</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G15" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9282,42 +9288,42 @@
         <v>12</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K15" s="22">
         <v>3.5</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9330,42 +9336,42 @@
         <v>18</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K16" s="5">
         <v>3.0</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G17" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9378,42 +9384,42 @@
         <v>18</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K17" s="22">
         <v>4.0</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N17" s="22" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G18" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9426,42 +9432,42 @@
         <v>12</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K18" s="24">
         <v>4.5</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G19" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9474,42 +9480,42 @@
         <v>12</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K19" s="22">
         <v>3.0</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9522,42 +9528,42 @@
         <v>12</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K20" s="24">
         <v>5.0</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="19" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G21" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9570,42 +9576,42 @@
         <v>18</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K21" s="22">
         <v>5.0</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="N21" s="22" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9618,42 +9624,42 @@
         <v>18</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K22" s="24">
         <v>5.0</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="19" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G23" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9666,42 +9672,42 @@
         <v>12</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K23" s="22">
         <v>5.0</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="N23" s="22" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9714,42 +9720,42 @@
         <v>18</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K24" s="24">
         <v>5.0</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="29" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G25" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9762,42 +9768,42 @@
         <v>18</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K25" s="20">
         <v>4.5</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O25" s="49" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9810,42 +9816,42 @@
         <v>12</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K26" s="24">
         <v>4.0</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="19" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G27" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9858,42 +9864,42 @@
         <v>12</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K27" s="22">
         <v>3.0</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N27" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O27" s="23" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G28" s="10" t="str">
         <f t="shared" si="1"/>
@@ -9906,42 +9912,42 @@
         <v>18</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K28" s="24">
         <v>5.0</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="N28" s="24" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O28" s="56" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="19" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G29" s="39" t="str">
         <f t="shared" si="1"/>
@@ -9954,42 +9960,42 @@
         <v>12</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K29" s="22">
         <v>4.5</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G30" s="57" t="str">
         <f t="shared" si="1"/>
@@ -10002,22 +10008,22 @@
         <v>12</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K30" s="33">
         <v>4.0</v>
       </c>
       <c r="L30" s="33" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="N30" s="33" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -10086,7 +10092,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -10095,10 +10101,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2">
@@ -10118,7 +10124,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G2" s="10">
         <v>2023.0</v>
@@ -10127,7 +10133,7 @@
         <v>18</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J2" s="18">
         <v>4.5</v>
@@ -10150,7 +10156,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G3" s="39">
         <v>2019.0</v>
@@ -10159,7 +10165,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J3" s="23">
         <v>4.0</v>
@@ -10167,22 +10173,22 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G4" s="10">
         <v>2020.0</v>
@@ -10191,7 +10197,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J4" s="18">
         <v>3.0</v>
@@ -10199,22 +10205,22 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="G5" s="39">
         <v>2021.0</v>
@@ -10223,7 +10229,7 @@
         <v>18</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J5" s="23">
         <v>5.0</v>
@@ -10231,22 +10237,22 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G6" s="10">
         <v>2024.0</v>
@@ -10255,7 +10261,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J6" s="18">
         <v>4.5</v>
@@ -10263,22 +10269,22 @@
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="G7" s="39">
         <v>2024.0</v>
@@ -10287,7 +10293,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J7" s="23">
         <v>4.5</v>
@@ -10295,22 +10301,22 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G8" s="10">
         <v>2025.0</v>
@@ -10319,7 +10325,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J8" s="38">
         <v>4.0</v>
@@ -10342,7 +10348,7 @@
         <v>73</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G9" s="39">
         <v>2023.0</v>
@@ -10351,7 +10357,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="J9" s="23">
         <v>4.0</v>
@@ -10359,22 +10365,22 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G10" s="57">
         <v>2021.0</v>
@@ -10383,7 +10389,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="J10" s="34">
         <v>4.5</v>
@@ -10427,50 +10433,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -10500,50 +10506,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
